--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2088,7 +2088,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="546">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2088,7 +2085,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3878,10 +3875,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3905,13 +3902,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3919,13 +3916,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3959,7 +3956,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4029,13 +4026,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4043,10 +4040,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4069,13 +4066,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4126,7 +4123,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4161,10 +4158,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4193,7 +4190,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4246,7 +4243,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4281,10 +4278,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4307,19 +4304,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4368,7 +4365,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4389,10 +4386,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4403,10 +4400,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4429,13 +4426,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4486,7 +4483,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4521,10 +4518,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4553,7 +4550,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4606,7 +4603,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4641,10 +4638,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4670,65 +4667,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4749,10 +4746,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4763,10 +4760,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4789,16 +4786,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4848,7 +4845,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4869,10 +4866,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4883,10 +4880,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4912,65 +4909,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4991,10 +4988,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5005,10 +5002,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5031,19 +5028,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5092,7 +5089,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5113,10 +5110,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5127,10 +5124,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5153,19 +5150,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5214,7 +5211,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5235,10 +5232,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5249,10 +5246,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5275,19 +5272,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5336,7 +5333,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5357,10 +5354,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5371,13 +5368,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5411,7 +5408,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5421,7 +5418,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5481,13 +5478,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5495,13 +5492,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5535,7 +5532,7 @@
         <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5545,7 +5542,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5605,13 +5602,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5619,14 +5616,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5648,16 +5645,16 @@
         <v>198</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5682,14 +5679,14 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5706,7 +5703,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>92</v>
@@ -5721,30 +5718,30 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AO30" t="s" s="2">
+      <c r="AP30" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5767,19 +5764,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5828,7 +5825,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5843,19 +5840,19 @@
         <v>170</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5863,10 +5860,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5889,16 +5886,16 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5948,7 +5945,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5969,13 +5966,13 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5983,14 +5980,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6009,19 +6006,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6070,7 +6067,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6085,19 +6082,19 @@
         <v>170</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6105,14 +6102,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6131,19 +6128,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6192,7 +6189,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6207,19 +6204,19 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6227,10 +6224,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6253,16 +6250,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6312,7 +6309,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6333,13 +6330,13 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6347,10 +6344,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6373,19 +6370,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6434,7 +6431,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6449,19 +6446,19 @@
         <v>170</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6469,10 +6466,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6495,19 +6492,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6556,7 +6553,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6565,7 +6562,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6574,27 +6571,27 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6620,16 +6617,16 @@
         <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6654,14 +6651,14 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6678,7 +6675,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6687,7 +6684,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6702,7 +6699,7 @@
         <v>106</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6713,14 +6710,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6742,16 +6739,16 @@
         <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6776,14 +6773,14 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6800,7 +6797,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6818,27 +6815,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6861,19 +6858,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6922,7 +6919,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6943,10 +6940,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6957,10 +6954,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6986,13 +6983,13 @@
         <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7018,14 +7015,14 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7042,7 +7039,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7060,27 +7057,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7106,16 +7103,16 @@
         <v>198</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7140,14 +7137,14 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7164,7 +7161,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7185,10 +7182,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7199,10 +7196,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7225,16 +7222,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7284,7 +7281,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7302,27 +7299,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7345,16 +7342,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7404,7 +7401,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7422,27 +7419,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP44" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7465,19 +7462,19 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7526,7 +7523,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7538,19 +7535,19 @@
         <v>104</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7561,10 +7558,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7587,13 +7584,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7644,7 +7641,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7679,10 +7676,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7711,7 +7708,7 @@
         <v>141</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>143</v>
@@ -7764,7 +7761,7 @@
         <v>146</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7799,14 +7796,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7828,10 +7825,10 @@
         <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>143</v>
@@ -7886,7 +7883,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7921,10 +7918,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7947,16 +7944,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8006,7 +8003,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8015,22 +8012,22 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8041,10 +8038,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8067,16 +8064,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8126,7 +8123,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8135,22 +8132,22 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AK50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8161,10 +8158,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8190,16 +8187,16 @@
         <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8227,11 +8224,11 @@
         <v>119</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8248,7 +8245,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8266,13 +8263,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="AN51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8283,10 +8280,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8312,16 +8309,16 @@
         <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8346,14 +8343,14 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8370,7 +8367,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8388,13 +8385,13 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="AN52" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8405,10 +8402,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8431,19 +8428,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8492,7 +8489,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8504,19 +8501,19 @@
         <v>104</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8527,10 +8524,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8553,16 +8550,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8612,7 +8609,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8633,10 +8630,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8647,10 +8644,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8673,16 +8670,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8732,7 +8729,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8753,10 +8750,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8767,10 +8764,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8793,16 +8790,16 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8852,7 +8849,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8873,10 +8870,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8887,10 +8884,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8913,19 +8910,19 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8974,7 +8971,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8995,10 +8992,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9009,10 +9006,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9035,13 +9032,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9092,7 +9089,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9127,10 +9124,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9159,7 +9156,7 @@
         <v>141</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>143</v>
@@ -9212,7 +9209,7 @@
         <v>146</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9247,14 +9244,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9276,10 +9273,10 @@
         <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>143</v>
@@ -9334,7 +9331,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9369,10 +9366,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9398,16 +9395,16 @@
         <v>198</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>533</v>
-      </c>
       <c r="O61" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9432,14 +9429,14 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9456,7 +9453,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>92</v>
@@ -9474,16 +9471,16 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9491,10 +9488,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9517,19 +9514,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>537</v>
-      </c>
       <c r="O62" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9578,7 +9575,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9596,27 +9593,27 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9642,16 +9639,16 @@
         <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="O63" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9676,14 +9673,14 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9700,7 +9697,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9709,7 +9706,7 @@
         <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9724,7 +9721,7 @@
         <v>106</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9735,14 +9732,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9764,16 +9761,16 @@
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9798,14 +9795,14 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9822,7 +9819,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9840,27 +9837,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9886,16 +9883,16 @@
         <v>83</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="N65" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9944,7 +9941,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9965,10 +9962,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="547">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -3875,10 +3878,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3902,13 +3905,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3916,13 +3919,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3956,7 +3959,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4026,13 +4029,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4040,10 +4043,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4066,13 +4069,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4123,7 +4126,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4158,10 +4161,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4190,7 +4193,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4243,7 +4246,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4278,10 +4281,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4289,13 +4292,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4304,19 +4307,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4365,7 +4368,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4386,10 +4389,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4400,10 +4403,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4426,13 +4429,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4483,7 +4486,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4518,10 +4521,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4550,7 +4553,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4603,7 +4606,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4638,10 +4641,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4649,13 +4652,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4667,23 +4670,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -4725,7 +4728,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4746,10 +4749,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4760,10 +4763,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4786,16 +4789,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4845,7 +4848,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4866,10 +4869,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4880,10 +4883,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4891,13 +4894,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4909,23 +4912,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -4967,7 +4970,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4988,10 +4991,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5002,10 +5005,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5028,19 +5031,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5089,7 +5092,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5110,10 +5113,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5124,10 +5127,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5150,19 +5153,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5211,7 +5214,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5232,10 +5235,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5246,10 +5249,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5272,19 +5275,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5333,7 +5336,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5354,10 +5357,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5368,13 +5371,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5408,7 +5411,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5418,7 +5421,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5478,13 +5481,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5492,13 +5495,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5532,7 +5535,7 @@
         <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5542,7 +5545,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5602,13 +5605,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5616,14 +5619,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5645,16 +5648,16 @@
         <v>198</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5679,13 +5682,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5703,7 +5706,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>92</v>
@@ -5718,30 +5721,30 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5764,19 +5767,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5825,7 +5828,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5840,19 +5843,19 @@
         <v>170</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5860,10 +5863,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5886,16 +5889,16 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5945,7 +5948,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5966,13 +5969,13 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5980,14 +5983,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6006,19 +6009,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6067,7 +6070,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6082,19 +6085,19 @@
         <v>170</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6102,14 +6105,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6128,19 +6131,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6189,7 +6192,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6204,19 +6207,19 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6224,10 +6227,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6250,16 +6253,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6309,7 +6312,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6330,13 +6333,13 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6344,10 +6347,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6370,19 +6373,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6431,7 +6434,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6446,19 +6449,19 @@
         <v>170</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6466,10 +6469,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6492,19 +6495,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6553,7 +6556,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6562,7 +6565,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6571,27 +6574,27 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6617,16 +6620,16 @@
         <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6651,13 +6654,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6675,7 +6678,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6684,7 +6687,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6699,7 +6702,7 @@
         <v>106</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6710,14 +6713,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6739,16 +6742,16 @@
         <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6773,13 +6776,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6797,7 +6800,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6815,27 +6818,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6858,19 +6861,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6919,7 +6922,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6940,10 +6943,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6954,10 +6957,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6983,13 +6986,13 @@
         <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7015,13 +7018,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7039,7 +7042,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7057,27 +7060,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7103,16 +7106,16 @@
         <v>198</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7137,13 +7140,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7161,7 +7164,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7182,10 +7185,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7196,10 +7199,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7222,16 +7225,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7281,7 +7284,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7299,27 +7302,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7342,16 +7345,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7401,7 +7404,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7419,27 +7422,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7462,19 +7465,19 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7523,7 +7526,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7535,7 +7538,7 @@
         <v>104</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7544,10 +7547,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7558,10 +7561,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7584,13 +7587,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7641,7 +7644,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7676,10 +7679,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7708,7 +7711,7 @@
         <v>141</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>143</v>
@@ -7761,7 +7764,7 @@
         <v>146</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7796,14 +7799,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7825,10 +7828,10 @@
         <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>143</v>
@@ -7883,7 +7886,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7918,10 +7921,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7944,16 +7947,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8003,7 +8006,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8012,10 +8015,10 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8024,10 +8027,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8038,10 +8041,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8064,16 +8067,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8123,7 +8126,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8132,10 +8135,10 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8144,10 +8147,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8158,10 +8161,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8187,16 +8190,16 @@
         <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8224,10 +8227,10 @@
         <v>119</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8245,7 +8248,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8263,13 +8266,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8280,10 +8283,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8309,16 +8312,16 @@
         <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8343,13 +8346,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8367,7 +8370,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8385,13 +8388,13 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8402,10 +8405,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8428,19 +8431,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8489,7 +8492,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8501,7 +8504,7 @@
         <v>104</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8510,10 +8513,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8524,10 +8527,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8550,16 +8553,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8609,7 +8612,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8630,10 +8633,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8644,10 +8647,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8670,16 +8673,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8729,7 +8732,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8750,10 +8753,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8764,10 +8767,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8790,16 +8793,16 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8849,7 +8852,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8870,10 +8873,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8884,10 +8887,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8910,19 +8913,19 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8971,7 +8974,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8992,10 +8995,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9006,10 +9009,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9032,13 +9035,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9089,7 +9092,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9124,10 +9127,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9156,7 +9159,7 @@
         <v>141</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>143</v>
@@ -9209,7 +9212,7 @@
         <v>146</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9244,14 +9247,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9273,10 +9276,10 @@
         <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>143</v>
@@ -9331,7 +9334,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9366,10 +9369,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9395,16 +9398,16 @@
         <v>198</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9429,13 +9432,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9453,7 +9456,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>92</v>
@@ -9471,16 +9474,16 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9488,10 +9491,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9514,19 +9517,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9575,7 +9578,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9593,27 +9596,27 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9639,16 +9642,16 @@
         <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9673,13 +9676,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9697,7 +9700,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9706,7 +9709,7 @@
         <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9721,7 +9724,7 @@
         <v>106</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9732,14 +9735,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9761,16 +9764,16 @@
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9795,13 +9798,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9819,7 +9822,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9837,27 +9840,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9883,16 +9886,16 @@
         <v>83</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9941,7 +9944,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9962,10 +9965,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-specimen-type.xlsx
+++ b/output/StructureDefinition-cls-l2-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
